--- a/documents/harja-roadmap.xlsx
+++ b/documents/harja-roadmap.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solita365-my.sharepoint.com/personal/riitta_annala_solita_fi/Documents/Documents/Lokakuu 2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solita365-my.sharepoint.com/personal/riitta_annala_solita_fi/Documents/Documents/Lokakuu 2021/HARJA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE42673-2FA4-1747-BF76-42C9A7A385CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{2FA17392-5FFF-CC4C-A252-10CF56293298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="500" windowWidth="35840" windowHeight="25920" xr2:uid="{3E69FD5A-7252-164A-8DDF-BA68CE879008}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{3E69FD5A-7252-164A-8DDF-BA68CE879008}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="76">
   <si>
     <t>UX</t>
   </si>
@@ -212,11 +212,6 @@
     <t>Tehtävämäärät/Muut työmäärämittaukset raportti</t>
   </si>
   <si>
-    <t>Kustannussuunnitelma
-* Kululajit
-* Indeksikohtaiset rahavaraukset</t>
-  </si>
-  <si>
     <t>Urakkakohtaiset Erikoistehtävät</t>
   </si>
   <si>
@@ -240,9 +235,6 @@
     <t>Velho - Varusteiden käyttöliittymämuutokset</t>
   </si>
   <si>
-    <t>Aluevastaavien tekemät tarkastusajot näkyviin</t>
-  </si>
-  <si>
     <t>Viranomaispalveluihin käytettyjen työnjohtotuntien seuranta</t>
   </si>
   <si>
@@ -265,6 +257,22 @@
   </si>
   <si>
     <t>Data/Analytiikka</t>
+  </si>
+  <si>
+    <t>Kustannussuunnitelma
+* Kululajit
+* Urakkakohtaiset rahavaraukset
+* Seurannaisvaikutukset</t>
+  </si>
+  <si>
+    <t>Paikkaustoteumien YHA-lähetys</t>
+  </si>
+  <si>
+    <t>Aluevastaavien tekemät tarkastusajot näkyviin
+Muistiot mukaan? (Ylläpito mukaan?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Työmaapäiväkirja </t>
   </si>
 </sst>
 </file>
@@ -399,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -813,19 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFA6A6A6"/>
       </left>
@@ -1121,19 +1116,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFA6A6A6"/>
       </left>
       <right style="thin">
@@ -1169,7 +1151,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1236,137 +1218,145 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="48" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1375,23 +1365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
@@ -1788,11 +1761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE4A618-B4CF-1640-AF1D-68ACE89002DB}">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomLeft" activeCell="BO33" sqref="BO1:BP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1806,20 +1779,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="BO1" s="39"/>
-      <c r="BP1" s="39"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="BO1" s="78"/>
+      <c r="BP1" s="78"/>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="7"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="BO2" s="39"/>
-      <c r="BP2" s="39"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
     </row>
     <row r="3" spans="1:68" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
@@ -1828,10 +1801,10 @@
       <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="BO3" s="39"/>
-      <c r="BP3" s="39"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="BO3" s="78"/>
+      <c r="BP3" s="78"/>
     </row>
     <row r="4" spans="1:68" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
@@ -1840,10 +1813,10 @@
       <c r="B4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="BO4" s="78"/>
+      <c r="BP4" s="78"/>
     </row>
     <row r="5" spans="1:68" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
@@ -1852,10 +1825,10 @@
       <c r="B5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="BO5" s="39"/>
-      <c r="BP5" s="39"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="BO5" s="78"/>
+      <c r="BP5" s="78"/>
     </row>
     <row r="6" spans="1:68" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
@@ -1864,10 +1837,10 @@
       <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="BO6" s="39"/>
-      <c r="BP6" s="39"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="BO6" s="78"/>
+      <c r="BP6" s="78"/>
     </row>
     <row r="7" spans="1:68" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
@@ -1876,36 +1849,36 @@
       <c r="B7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="BO7" s="39"/>
-      <c r="BP7" s="39"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="BO7" s="78"/>
+      <c r="BP7" s="78"/>
     </row>
     <row r="8" spans="1:68" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="BO8" s="52"/>
-      <c r="BP8" s="52"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="BO8" s="79"/>
+      <c r="BP8" s="79"/>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
       <c r="O9" s="27">
         <v>2022</v>
       </c>
-      <c r="BO9" s="53"/>
-      <c r="BP9" s="53"/>
+      <c r="BO9" s="80"/>
+      <c r="BP9" s="80"/>
     </row>
     <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="16"/>
       <c r="D10" s="18" t="s">
         <v>40</v>
@@ -1920,10 +1893,10 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="55"/>
+      <c r="N10" s="82"/>
       <c r="O10" s="18" t="s">
         <v>42</v>
       </c>
@@ -1949,12 +1922,12 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="21"/>
-      <c r="AF10" s="67" t="s">
+      <c r="AF10" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="69"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="41"/>
       <c r="AJ10" s="18" t="s">
         <v>36</v>
       </c>
@@ -1962,12 +1935,12 @@
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
       <c r="AN10" s="21"/>
-      <c r="AO10" s="67" t="s">
+      <c r="AO10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AP10" s="68"/>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="69"/>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="41"/>
       <c r="AS10" s="18" t="s">
         <v>38</v>
       </c>
@@ -1975,18 +1948,18 @@
       <c r="AU10" s="16"/>
       <c r="AV10" s="16"/>
       <c r="AW10" s="21"/>
-      <c r="AX10" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY10" s="68"/>
-      <c r="AZ10" s="68"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="67" t="s">
+      <c r="AX10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY10" s="40"/>
+      <c r="AZ10" s="40"/>
+      <c r="BA10" s="41"/>
+      <c r="BB10" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="BC10" s="68"/>
-      <c r="BD10" s="68"/>
-      <c r="BE10" s="69"/>
+      <c r="BC10" s="40"/>
+      <c r="BD10" s="40"/>
+      <c r="BE10" s="41"/>
       <c r="BF10" s="18" t="s">
         <v>40</v>
       </c>
@@ -1994,24 +1967,24 @@
       <c r="BH10" s="16"/>
       <c r="BI10" s="16"/>
       <c r="BJ10" s="21"/>
-      <c r="BK10" s="67" t="s">
+      <c r="BK10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="BL10" s="68"/>
-      <c r="BM10" s="68"/>
-      <c r="BN10" s="69"/>
-      <c r="BO10" s="54" t="s">
+      <c r="BL10" s="40"/>
+      <c r="BM10" s="40"/>
+      <c r="BN10" s="41"/>
+      <c r="BO10" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="BP10" s="55"/>
+      <c r="BP10" s="82"/>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="94"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2020,10 +1993,10 @@
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="76" t="s">
+      <c r="M11" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="47"/>
+      <c r="N11" s="67"/>
       <c r="O11" s="9"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -2041,53 +2014,53 @@
       <c r="AC11" s="13"/>
       <c r="AD11" s="13"/>
       <c r="AE11" s="20"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="72"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="44"/>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="13"/>
       <c r="AL11" s="13"/>
       <c r="AM11" s="13"/>
       <c r="AN11" s="12"/>
-      <c r="AO11" s="70"/>
-      <c r="AP11" s="71"/>
-      <c r="AQ11" s="71"/>
-      <c r="AR11" s="72"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="44"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="13"/>
       <c r="AU11" s="13"/>
       <c r="AV11" s="13"/>
       <c r="AW11" s="12"/>
-      <c r="AX11" s="70"/>
-      <c r="AY11" s="71"/>
-      <c r="AZ11" s="71"/>
-      <c r="BA11" s="72"/>
-      <c r="BB11" s="70"/>
-      <c r="BC11" s="71"/>
-      <c r="BD11" s="71"/>
-      <c r="BE11" s="72"/>
+      <c r="AX11" s="42"/>
+      <c r="AY11" s="43"/>
+      <c r="AZ11" s="43"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="42"/>
+      <c r="BC11" s="43"/>
+      <c r="BD11" s="43"/>
+      <c r="BE11" s="44"/>
       <c r="BF11" s="9"/>
       <c r="BG11" s="13"/>
       <c r="BH11" s="13"/>
       <c r="BI11" s="13"/>
       <c r="BJ11" s="12"/>
-      <c r="BK11" s="70"/>
-      <c r="BL11" s="71"/>
-      <c r="BM11" s="71"/>
-      <c r="BN11" s="72"/>
-      <c r="BO11" s="46" t="s">
+      <c r="BK11" s="42"/>
+      <c r="BL11" s="43"/>
+      <c r="BM11" s="43"/>
+      <c r="BN11" s="44"/>
+      <c r="BO11" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="BP11" s="47"/>
+      <c r="BP11" s="67"/>
     </row>
     <row r="12" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="95" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="56" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="29" t="s">
@@ -2098,10 +2071,10 @@
       </c>
       <c r="H12" s="4"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="45"/>
+      <c r="N12" s="64"/>
       <c r="S12" s="4"/>
       <c r="V12" s="19"/>
       <c r="AA12" s="19"/>
@@ -2114,16 +2087,16 @@
       <c r="BE12" s="19"/>
       <c r="BJ12" s="19"/>
       <c r="BN12" s="19"/>
-      <c r="BO12" s="51" t="s">
+      <c r="BO12" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="BP12" s="45"/>
+      <c r="BP12" s="64"/>
     </row>
     <row r="13" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="64"/>
       <c r="D13" s="4"/>
       <c r="H13" s="4"/>
       <c r="J13" s="29" t="s">
@@ -2132,13 +2105,13 @@
       <c r="K13" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="51" t="s">
+      <c r="L13" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="45"/>
+      <c r="N13" s="64"/>
       <c r="S13" s="4"/>
       <c r="V13" s="19"/>
       <c r="AA13" s="19"/>
@@ -2151,28 +2124,28 @@
       <c r="BE13" s="19"/>
       <c r="BJ13" s="19"/>
       <c r="BN13" s="19"/>
-      <c r="BO13" s="51" t="s">
+      <c r="BO13" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="BP13" s="45"/>
+      <c r="BP13" s="64"/>
     </row>
     <row r="14" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="64"/>
       <c r="D14" s="4"/>
       <c r="H14" s="4"/>
       <c r="K14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="51" t="s">
+      <c r="L14" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="45"/>
+      <c r="N14" s="64"/>
       <c r="S14" s="4"/>
       <c r="V14" s="19"/>
       <c r="AA14" s="19"/>
@@ -2185,16 +2158,16 @@
       <c r="BE14" s="19"/>
       <c r="BJ14" s="19"/>
       <c r="BN14" s="19"/>
-      <c r="BO14" s="51" t="s">
+      <c r="BO14" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="BP14" s="45"/>
-    </row>
-    <row r="15" spans="1:68" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="45"/>
+      <c r="BP14" s="64"/>
+    </row>
+    <row r="15" spans="1:68" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="64"/>
       <c r="C15" s="29" t="s">
         <v>1</v>
       </c>
@@ -2220,10 +2193,10 @@
         <v>2</v>
       </c>
       <c r="L15" s="19"/>
-      <c r="M15" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" s="45"/>
+      <c r="M15" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="64"/>
       <c r="S15" s="4"/>
       <c r="V15" s="19"/>
       <c r="AA15" s="19"/>
@@ -2236,23 +2209,23 @@
       <c r="BE15" s="19"/>
       <c r="BJ15" s="19"/>
       <c r="BN15" s="19"/>
-      <c r="BO15" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP15" s="45"/>
+      <c r="BO15" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP15" s="64"/>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="58"/>
+      <c r="B16" s="69"/>
       <c r="H16" s="4"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="42"/>
-      <c r="Q16" s="97" t="s">
+      <c r="M16" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="69"/>
+      <c r="Q16" s="58" t="s">
         <v>48</v>
       </c>
       <c r="R16" s="28" t="s">
@@ -2286,16 +2259,16 @@
       <c r="BE16" s="19"/>
       <c r="BJ16" s="19"/>
       <c r="BN16" s="19"/>
-      <c r="BO16" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="BP16" s="42"/>
+      <c r="BO16" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP16" s="69"/>
     </row>
     <row r="17" spans="1:68" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="45"/>
+      <c r="A17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="64"/>
       <c r="D17" s="29" t="s">
         <v>1</v>
       </c>
@@ -2307,11 +2280,11 @@
       </c>
       <c r="H17" s="4"/>
       <c r="J17" s="11"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="N17" s="45"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="64"/>
       <c r="S17" s="4"/>
       <c r="V17" s="19"/>
       <c r="AA17" s="19"/>
@@ -2324,16 +2297,16 @@
       <c r="BE17" s="19"/>
       <c r="BJ17" s="19"/>
       <c r="BN17" s="19"/>
-      <c r="BO17" s="51" t="s">
+      <c r="BO17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="BP17" s="64"/>
+    </row>
+    <row r="18" spans="1:68" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="BP17" s="45"/>
-    </row>
-    <row r="18" spans="1:68" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="29" t="s">
         <v>1</v>
       </c>
@@ -2347,13 +2320,13 @@
       <c r="K18" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="60"/>
+      <c r="L18" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="83"/>
       <c r="S18" s="4"/>
       <c r="V18" s="19"/>
       <c r="AA18" s="19"/>
@@ -2366,16 +2339,16 @@
       <c r="BE18" s="19"/>
       <c r="BJ18" s="19"/>
       <c r="BN18" s="19"/>
-      <c r="BO18" s="43" t="s">
+      <c r="BO18" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="BP18" s="83"/>
+    </row>
+    <row r="19" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="BP18" s="60"/>
-    </row>
-    <row r="19" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="75"/>
       <c r="D19" s="4"/>
       <c r="G19" s="28" t="s">
         <v>0</v>
@@ -2389,11 +2362,11 @@
       <c r="J19" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="81"/>
-      <c r="M19" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" s="62"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="75"/>
       <c r="S19" s="4"/>
       <c r="V19" s="19"/>
       <c r="AA19" s="19"/>
@@ -2406,23 +2379,23 @@
       <c r="BE19" s="19"/>
       <c r="BJ19" s="19"/>
       <c r="BN19" s="19"/>
-      <c r="BO19" s="61" t="s">
+      <c r="BO19" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="BP19" s="75"/>
+    </row>
+    <row r="20" spans="1:68" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="BP19" s="62"/>
-    </row>
-    <row r="20" spans="1:68" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="62"/>
+      <c r="B20" s="75"/>
       <c r="D20" s="4"/>
       <c r="H20" s="4"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" s="62"/>
+      <c r="M20" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="75"/>
       <c r="S20" s="4"/>
       <c r="V20" s="19"/>
       <c r="Z20" s="29" t="s">
@@ -2454,23 +2427,23 @@
       <c r="BE20" s="19"/>
       <c r="BJ20" s="19"/>
       <c r="BN20" s="19"/>
-      <c r="BO20" s="61" t="s">
+      <c r="BO20" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP20" s="75"/>
+    </row>
+    <row r="21" spans="1:68" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="BP20" s="62"/>
-    </row>
-    <row r="21" spans="1:68" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="62"/>
+      <c r="B21" s="75"/>
       <c r="D21" s="4"/>
       <c r="H21" s="4"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="N21" s="62"/>
+      <c r="M21" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="75"/>
       <c r="P21" s="29" t="s">
         <v>1</v>
       </c>
@@ -2494,23 +2467,23 @@
       <c r="BE21" s="19"/>
       <c r="BJ21" s="19"/>
       <c r="BN21" s="19"/>
-      <c r="BO21" s="61" t="s">
+      <c r="BO21" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP21" s="75"/>
+    </row>
+    <row r="22" spans="1:68" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="BP21" s="62"/>
-    </row>
-    <row r="22" spans="1:68" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="62"/>
+      <c r="B22" s="75"/>
       <c r="D22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" s="62"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="N22" s="75"/>
       <c r="S22" s="4"/>
       <c r="U22" s="29" t="s">
         <v>1</v>
@@ -2534,16 +2507,16 @@
       <c r="BE22" s="19"/>
       <c r="BJ22" s="19"/>
       <c r="BN22" s="19"/>
-      <c r="BO22" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="BP22" s="62"/>
+      <c r="BO22" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP22" s="75"/>
     </row>
     <row r="23" spans="1:68" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="62"/>
+      <c r="A23" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="75"/>
       <c r="C23" s="29" t="s">
         <v>1</v>
       </c>
@@ -2571,13 +2544,13 @@
       <c r="K23" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L23" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="M23" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="N23" s="62"/>
+      <c r="L23" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="N23" s="75"/>
       <c r="S23" s="4"/>
       <c r="V23" s="19"/>
       <c r="AA23" s="19"/>
@@ -2590,16 +2563,16 @@
       <c r="BE23" s="19"/>
       <c r="BJ23" s="19"/>
       <c r="BN23" s="19"/>
-      <c r="BO23" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP23" s="62"/>
+      <c r="BO23" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP23" s="75"/>
     </row>
     <row r="24" spans="1:68" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="62"/>
+      <c r="A24" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="75"/>
       <c r="C24" s="29" t="s">
         <v>1</v>
       </c>
@@ -2627,13 +2600,13 @@
       <c r="K24" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="M24" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="N24" s="84"/>
+      <c r="L24" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="87"/>
       <c r="O24" s="29" t="s">
         <v>1</v>
       </c>
@@ -2660,26 +2633,26 @@
       <c r="BE24" s="19"/>
       <c r="BJ24" s="19"/>
       <c r="BN24" s="19"/>
-      <c r="BO24" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="BP24" s="62"/>
-    </row>
-    <row r="25" spans="1:68" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="62"/>
+      <c r="BO24" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP24" s="87"/>
+    </row>
+    <row r="25" spans="1:68" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="75"/>
       <c r="D25" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H25" s="4"/>
       <c r="J25" s="11"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="62"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="75"/>
       <c r="S25" s="4"/>
       <c r="V25" s="19"/>
       <c r="AA25" s="19"/>
@@ -2692,23 +2665,23 @@
       <c r="BE25" s="19"/>
       <c r="BJ25" s="19"/>
       <c r="BN25" s="19"/>
-      <c r="BO25" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP25" s="62"/>
+      <c r="BO25" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP25" s="75"/>
     </row>
     <row r="26" spans="1:68" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="64"/>
+      <c r="A26" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="77"/>
       <c r="D26" s="4"/>
       <c r="H26" s="4"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="N26" s="64"/>
+      <c r="M26" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="N26" s="77"/>
       <c r="O26" s="36" t="s">
         <v>48</v>
       </c>
@@ -2738,26 +2711,26 @@
       <c r="BE26" s="19"/>
       <c r="BJ26" s="19"/>
       <c r="BN26" s="19"/>
-      <c r="BO26" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP26" s="64"/>
+      <c r="BO26" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP26" s="77"/>
     </row>
     <row r="27" spans="1:68" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="58"/>
+      <c r="A27" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="69"/>
       <c r="D27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" s="58"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="69"/>
       <c r="S27" s="4"/>
       <c r="V27" s="19"/>
-      <c r="W27" s="93" t="s">
+      <c r="W27" s="54" t="s">
         <v>48</v>
       </c>
       <c r="X27" s="36" t="s">
@@ -2784,25 +2757,25 @@
       <c r="BE27" s="19"/>
       <c r="BJ27" s="19"/>
       <c r="BN27" s="19"/>
-      <c r="BO27" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="BP27" s="58"/>
+      <c r="BO27" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP27" s="69"/>
     </row>
     <row r="28" spans="1:68" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="58"/>
+      <c r="A28" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="69"/>
       <c r="D28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="L28" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="M28" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="N28" s="59"/>
+      <c r="L28" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="89"/>
       <c r="O28" s="29" t="s">
         <v>1</v>
       </c>
@@ -2821,18 +2794,18 @@
       <c r="BE28" s="19"/>
       <c r="BJ28" s="19"/>
       <c r="BN28" s="19"/>
-      <c r="BO28" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP28" s="58"/>
+      <c r="BO28" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP28" s="89"/>
     </row>
     <row r="29" spans="1:68" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
       <c r="D29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="45"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="64"/>
       <c r="S29" s="4"/>
       <c r="V29" s="19"/>
       <c r="AA29" s="19"/>
@@ -2845,14 +2818,14 @@
       <c r="BE29" s="19"/>
       <c r="BJ29" s="19"/>
       <c r="BN29" s="19"/>
-      <c r="BO29" s="44"/>
-      <c r="BP29" s="45"/>
+      <c r="BO29" s="84"/>
+      <c r="BP29" s="64"/>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="12"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13"/>
@@ -2863,10 +2836,10 @@
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
-      <c r="M30" s="46" t="s">
+      <c r="M30" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="N30" s="47"/>
+      <c r="N30" s="67"/>
       <c r="O30" s="9"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
@@ -2919,22 +2892,22 @@
       <c r="BL30" s="13"/>
       <c r="BM30" s="13"/>
       <c r="BN30" s="13"/>
-      <c r="BO30" s="46" t="s">
+      <c r="BO30" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="BP30" s="47"/>
+      <c r="BP30" s="67"/>
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="64"/>
       <c r="D31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="M31" s="88" t="s">
+      <c r="M31" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="45"/>
+      <c r="N31" s="64"/>
       <c r="S31" s="4"/>
       <c r="V31" s="19"/>
       <c r="AA31" s="19"/>
@@ -2947,16 +2920,16 @@
       <c r="BE31" s="19"/>
       <c r="BJ31" s="19"/>
       <c r="BN31" s="19"/>
-      <c r="BO31" s="40" t="s">
+      <c r="BO31" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="BP31" s="42"/>
+      <c r="BP31" s="64"/>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="29" t="s">
         <v>1</v>
       </c>
@@ -2973,10 +2946,10 @@
         <v>1</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="M32" s="88" t="s">
+      <c r="M32" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="45"/>
+      <c r="N32" s="64"/>
       <c r="S32" s="4"/>
       <c r="V32" s="19"/>
       <c r="AA32" s="19"/>
@@ -2989,22 +2962,31 @@
       <c r="BE32" s="19"/>
       <c r="BJ32" s="19"/>
       <c r="BN32" s="19"/>
-      <c r="BO32" s="40" t="s">
+      <c r="BO32" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="BP32" s="42"/>
+      <c r="BP32" s="64"/>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A33" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="45"/>
+      <c r="A33" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="64"/>
       <c r="D33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="M33" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="N33" s="45"/>
+      <c r="M33" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="N33" s="64"/>
+      <c r="P33" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="S33" s="4"/>
       <c r="V33" s="19"/>
       <c r="AA33" s="19"/>
@@ -3017,22 +2999,22 @@
       <c r="BE33" s="19"/>
       <c r="BJ33" s="19"/>
       <c r="BN33" s="19"/>
-      <c r="BO33" s="40" t="s">
+      <c r="BO33" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP33" s="64"/>
+    </row>
+    <row r="34" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A34" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="BP33" s="42"/>
-    </row>
-    <row r="34" spans="1:68" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="62"/>
+      <c r="B34" s="64"/>
       <c r="D34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="M34" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="N34" s="45"/>
+      <c r="M34" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="64"/>
       <c r="S34" s="4"/>
       <c r="V34" s="19"/>
       <c r="AA34" s="19"/>
@@ -3045,22 +3027,42 @@
       <c r="BE34" s="19"/>
       <c r="BJ34" s="19"/>
       <c r="BN34" s="19"/>
-      <c r="BO34" s="43" t="s">
+      <c r="BO34" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP34" s="64"/>
+    </row>
+    <row r="35" spans="1:68" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="BP34" s="42"/>
-    </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A35" s="51"/>
-      <c r="B35" s="45"/>
+      <c r="B35" s="75"/>
       <c r="D35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="45"/>
+      <c r="M35" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35" s="64"/>
       <c r="S35" s="4"/>
       <c r="V35" s="19"/>
-      <c r="AA35" s="19"/>
+      <c r="W35" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="X35" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y35" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="AE35" s="19"/>
       <c r="AI35" s="19"/>
       <c r="AN35" s="19"/>
@@ -3070,135 +3072,131 @@
       <c r="BE35" s="19"/>
       <c r="BJ35" s="19"/>
       <c r="BN35" s="19"/>
-      <c r="BO35" s="44"/>
-      <c r="BP35" s="45"/>
+      <c r="BO35" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="BP35" s="64"/>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="D36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="64"/>
+      <c r="S36" s="4"/>
+      <c r="V36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AN36" s="19"/>
+      <c r="AR36" s="19"/>
+      <c r="AW36" s="19"/>
+      <c r="BA36" s="19"/>
+      <c r="BE36" s="19"/>
+      <c r="BJ36" s="19"/>
+      <c r="BN36" s="19"/>
+      <c r="BO36" s="65"/>
+      <c r="BP36" s="64"/>
+    </row>
+    <row r="37" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="65" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="N36" s="20"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="100"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="100"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="101"/>
-      <c r="Z36" s="101"/>
-      <c r="AA36" s="101"/>
-      <c r="AB36" s="100"/>
-      <c r="AC36" s="101"/>
-      <c r="AD36" s="101"/>
-      <c r="AE36" s="101"/>
-      <c r="AF36" s="100"/>
-      <c r="AG36" s="101"/>
-      <c r="AH36" s="101"/>
-      <c r="AI36" s="101"/>
-      <c r="AJ36" s="100"/>
-      <c r="AK36" s="101"/>
-      <c r="AL36" s="101"/>
-      <c r="AM36" s="101"/>
-      <c r="AN36" s="101"/>
-      <c r="AO36" s="100"/>
-      <c r="AP36" s="101"/>
-      <c r="AQ36" s="101"/>
-      <c r="AR36" s="101"/>
-      <c r="AS36" s="100"/>
-      <c r="AT36" s="101"/>
-      <c r="AU36" s="101"/>
-      <c r="AV36" s="101"/>
-      <c r="AW36" s="101"/>
-      <c r="AX36" s="100"/>
-      <c r="AY36" s="101"/>
-      <c r="AZ36" s="101"/>
-      <c r="BA36" s="101"/>
-      <c r="BB36" s="100"/>
-      <c r="BC36" s="101"/>
-      <c r="BD36" s="101"/>
-      <c r="BE36" s="101"/>
-      <c r="BF36" s="100"/>
-      <c r="BG36" s="101"/>
-      <c r="BH36" s="101"/>
-      <c r="BI36" s="101"/>
-      <c r="BJ36" s="101"/>
-      <c r="BK36" s="100"/>
-      <c r="BL36" s="101"/>
-      <c r="BM36" s="101"/>
-      <c r="BN36" s="101"/>
-      <c r="BO36" s="14" t="s">
+      <c r="N37" s="20"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="61"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="61"/>
+      <c r="AJ37" s="60"/>
+      <c r="AK37" s="61"/>
+      <c r="AL37" s="61"/>
+      <c r="AM37" s="61"/>
+      <c r="AN37" s="61"/>
+      <c r="AO37" s="60"/>
+      <c r="AP37" s="61"/>
+      <c r="AQ37" s="61"/>
+      <c r="AR37" s="61"/>
+      <c r="AS37" s="60"/>
+      <c r="AT37" s="61"/>
+      <c r="AU37" s="61"/>
+      <c r="AV37" s="61"/>
+      <c r="AW37" s="61"/>
+      <c r="AX37" s="60"/>
+      <c r="AY37" s="61"/>
+      <c r="AZ37" s="61"/>
+      <c r="BA37" s="61"/>
+      <c r="BB37" s="60"/>
+      <c r="BC37" s="61"/>
+      <c r="BD37" s="61"/>
+      <c r="BE37" s="61"/>
+      <c r="BF37" s="60"/>
+      <c r="BG37" s="61"/>
+      <c r="BH37" s="61"/>
+      <c r="BI37" s="61"/>
+      <c r="BJ37" s="61"/>
+      <c r="BK37" s="60"/>
+      <c r="BL37" s="61"/>
+      <c r="BM37" s="61"/>
+      <c r="BN37" s="61"/>
+      <c r="BO37" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BP36" s="20"/>
-    </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="62"/>
-      <c r="D37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="N37" s="74"/>
-      <c r="S37" s="4"/>
-      <c r="V37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AN37" s="19"/>
-      <c r="AR37" s="19"/>
-      <c r="AW37" s="19"/>
-      <c r="BA37" s="19"/>
-      <c r="BE37" s="19"/>
-      <c r="BJ37" s="19"/>
-      <c r="BN37" s="19"/>
-      <c r="BO37" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="BP37" s="45"/>
+      <c r="BP37" s="20"/>
     </row>
     <row r="38" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="45"/>
+      <c r="A38" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="75"/>
       <c r="D38" s="4"/>
       <c r="H38" s="4"/>
+      <c r="I38" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="L38" s="19"/>
-      <c r="M38" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="N38" s="45"/>
+      <c r="M38" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="N38" s="95"/>
       <c r="S38" s="4"/>
       <c r="V38" s="19"/>
       <c r="AA38" s="19"/>
@@ -3211,58 +3209,28 @@
       <c r="BE38" s="19"/>
       <c r="BJ38" s="19"/>
       <c r="BN38" s="19"/>
-      <c r="BO38" s="51" t="s">
+      <c r="BO38" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP38" s="95"/>
+    </row>
+    <row r="39" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="BP38" s="45"/>
-    </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="45"/>
+      <c r="B39" s="64"/>
       <c r="D39" s="4"/>
       <c r="H39" s="4"/>
       <c r="L39" s="19"/>
-      <c r="M39" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="N39" s="45"/>
+      <c r="M39" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="64"/>
       <c r="S39" s="4"/>
       <c r="V39" s="19"/>
-      <c r="Z39" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA39" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB39" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC39" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF39" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG39" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ39" s="30" t="s">
-        <v>2</v>
-      </c>
+      <c r="AA39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AI39" s="19"/>
       <c r="AN39" s="19"/>
       <c r="AR39" s="19"/>
       <c r="AW39" s="19"/>
@@ -3270,28 +3238,58 @@
       <c r="BE39" s="19"/>
       <c r="BJ39" s="19"/>
       <c r="BN39" s="19"/>
-      <c r="BO39" s="51" t="s">
+      <c r="BO39" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="BP39" s="64"/>
+    </row>
+    <row r="40" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="BP39" s="45"/>
-    </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="64"/>
       <c r="D40" s="4"/>
       <c r="H40" s="4"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="45"/>
+      <c r="M40" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="N40" s="64"/>
       <c r="S40" s="4"/>
       <c r="V40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AI40" s="19"/>
+      <c r="Z40" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA40" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB40" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC40" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ40" s="30" t="s">
+        <v>2</v>
+      </c>
       <c r="AN40" s="19"/>
       <c r="AR40" s="19"/>
       <c r="AW40" s="19"/>
@@ -3299,23 +3297,23 @@
       <c r="BE40" s="19"/>
       <c r="BJ40" s="19"/>
       <c r="BN40" s="19"/>
-      <c r="BO40" s="51" t="s">
+      <c r="BO40" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="BP40" s="64"/>
+    </row>
+    <row r="41" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="BP40" s="45"/>
-    </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A41" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="45"/>
+      <c r="B41" s="64"/>
       <c r="D41" s="4"/>
       <c r="H41" s="4"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="N41" s="45"/>
+      <c r="M41" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="64"/>
       <c r="S41" s="4"/>
       <c r="V41" s="19"/>
       <c r="AA41" s="19"/>
@@ -3328,50 +3326,23 @@
       <c r="BE41" s="19"/>
       <c r="BJ41" s="19"/>
       <c r="BN41" s="19"/>
-      <c r="BO41" s="51" t="s">
+      <c r="BO41" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP41" s="64"/>
+    </row>
+    <row r="42" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="BP41" s="45"/>
-    </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="K42" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="L42" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="M42" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="N42" s="45"/>
+      <c r="B42" s="64"/>
+      <c r="D42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N42" s="64"/>
       <c r="S42" s="4"/>
       <c r="V42" s="19"/>
       <c r="AA42" s="19"/>
@@ -3384,18 +3355,34 @@
       <c r="BE42" s="19"/>
       <c r="BJ42" s="19"/>
       <c r="BN42" s="19"/>
-      <c r="BO42" s="51" t="s">
+      <c r="BO42" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="BP42" s="64"/>
+    </row>
+    <row r="43" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="BP42" s="45"/>
-    </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="45"/>
-      <c r="D43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="I43" s="29" t="s">
         <v>1</v>
       </c>
@@ -3405,13 +3392,13 @@
       <c r="K43" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L43" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="M43" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" s="45"/>
+      <c r="L43" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M43" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="N43" s="64"/>
       <c r="S43" s="4"/>
       <c r="V43" s="19"/>
       <c r="AA43" s="19"/>
@@ -3424,45 +3411,34 @@
       <c r="BE43" s="19"/>
       <c r="BJ43" s="19"/>
       <c r="BN43" s="19"/>
-      <c r="BO43" s="51" t="s">
+      <c r="BO43" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP43" s="64"/>
+    </row>
+    <row r="44" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="BP43" s="45"/>
-    </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A44" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="58"/>
-      <c r="D44" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>1</v>
-      </c>
+      <c r="B44" s="64"/>
+      <c r="D44" s="4"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J44" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="L44" s="19"/>
-      <c r="M44" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="N44" s="58"/>
+      <c r="J44" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M44" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="64"/>
       <c r="S44" s="4"/>
       <c r="V44" s="19"/>
       <c r="AA44" s="19"/>
@@ -3475,19 +3451,45 @@
       <c r="BE44" s="19"/>
       <c r="BJ44" s="19"/>
       <c r="BN44" s="19"/>
-      <c r="BO44" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP44" s="58"/>
-    </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
-      <c r="D45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="BO44" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="BP44" s="64"/>
+    </row>
+    <row r="45" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="69"/>
+      <c r="D45" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>2</v>
+      </c>
       <c r="L45" s="19"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="49"/>
+      <c r="M45" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="N45" s="69"/>
       <c r="S45" s="4"/>
       <c r="V45" s="19"/>
       <c r="AA45" s="19"/>
@@ -3500,161 +3502,134 @@
       <c r="BE45" s="19"/>
       <c r="BJ45" s="19"/>
       <c r="BN45" s="19"/>
-      <c r="BO45" s="48"/>
-      <c r="BP45" s="49"/>
+      <c r="BO45" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP45" s="69"/>
     </row>
     <row r="46" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="90"/>
+      <c r="B46" s="91"/>
+      <c r="D46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="71"/>
+      <c r="S46" s="4"/>
+      <c r="V46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AI46" s="19"/>
+      <c r="AN46" s="19"/>
+      <c r="AR46" s="19"/>
+      <c r="AW46" s="19"/>
+      <c r="BA46" s="19"/>
+      <c r="BE46" s="19"/>
+      <c r="BJ46" s="19"/>
+      <c r="BN46" s="19"/>
+      <c r="BO46" s="70"/>
+      <c r="BP46" s="71"/>
+    </row>
+    <row r="47" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A47" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="76" t="s">
+      <c r="B47" s="67"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="47"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="9"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="9"/>
-      <c r="AK46" s="13"/>
-      <c r="AL46" s="13"/>
-      <c r="AM46" s="13"/>
-      <c r="AN46" s="13"/>
-      <c r="AO46" s="9"/>
-      <c r="AP46" s="13"/>
-      <c r="AQ46" s="13"/>
-      <c r="AR46" s="13"/>
-      <c r="AS46" s="9"/>
-      <c r="AT46" s="13"/>
-      <c r="AU46" s="13"/>
-      <c r="AV46" s="13"/>
-      <c r="AW46" s="13"/>
-      <c r="AX46" s="9"/>
-      <c r="AY46" s="13"/>
-      <c r="AZ46" s="13"/>
-      <c r="BA46" s="13"/>
-      <c r="BB46" s="9"/>
-      <c r="BC46" s="13"/>
-      <c r="BD46" s="13"/>
-      <c r="BE46" s="13"/>
-      <c r="BF46" s="9"/>
-      <c r="BG46" s="13"/>
-      <c r="BH46" s="13"/>
-      <c r="BI46" s="13"/>
-      <c r="BJ46" s="13"/>
-      <c r="BK46" s="9"/>
-      <c r="BL46" s="13"/>
-      <c r="BM46" s="13"/>
-      <c r="BN46" s="13"/>
-      <c r="BO46" s="46" t="s">
+      <c r="N47" s="67"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="13"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="13"/>
+      <c r="AL47" s="13"/>
+      <c r="AM47" s="13"/>
+      <c r="AN47" s="13"/>
+      <c r="AO47" s="9"/>
+      <c r="AP47" s="13"/>
+      <c r="AQ47" s="13"/>
+      <c r="AR47" s="13"/>
+      <c r="AS47" s="9"/>
+      <c r="AT47" s="13"/>
+      <c r="AU47" s="13"/>
+      <c r="AV47" s="13"/>
+      <c r="AW47" s="13"/>
+      <c r="AX47" s="9"/>
+      <c r="AY47" s="13"/>
+      <c r="AZ47" s="13"/>
+      <c r="BA47" s="13"/>
+      <c r="BB47" s="9"/>
+      <c r="BC47" s="13"/>
+      <c r="BD47" s="13"/>
+      <c r="BE47" s="13"/>
+      <c r="BF47" s="9"/>
+      <c r="BG47" s="13"/>
+      <c r="BH47" s="13"/>
+      <c r="BI47" s="13"/>
+      <c r="BJ47" s="13"/>
+      <c r="BK47" s="9"/>
+      <c r="BL47" s="13"/>
+      <c r="BM47" s="13"/>
+      <c r="BN47" s="13"/>
+      <c r="BO47" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="BP46" s="47"/>
-    </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A47" s="51" t="s">
+      <c r="BP47" s="67"/>
+    </row>
+    <row r="48" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="D47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="51" t="s">
+      <c r="B48" s="64"/>
+      <c r="D48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="N47" s="45"/>
-      <c r="O47" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="P47" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="R47" s="30" t="s">
+      <c r="N48" s="64"/>
+      <c r="O48" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="R48" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="S47" s="4"/>
-      <c r="V47" s="19"/>
-      <c r="AA47" s="19"/>
-      <c r="AE47" s="19"/>
-      <c r="AI47" s="19"/>
-      <c r="AN47" s="19"/>
-      <c r="AR47" s="19"/>
-      <c r="AW47" s="19"/>
-      <c r="BA47" s="19"/>
-      <c r="BE47" s="19"/>
-      <c r="BJ47" s="19"/>
-      <c r="BN47" s="19"/>
-      <c r="BO47" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="BP47" s="45"/>
-    </row>
-    <row r="48" spans="1:68" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="45"/>
-      <c r="D48" s="4"/>
-      <c r="F48" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="M48" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="R48" s="19"/>
       <c r="S48" s="4"/>
       <c r="V48" s="19"/>
       <c r="AA48" s="19"/>
@@ -3667,23 +3642,46 @@
       <c r="BE48" s="19"/>
       <c r="BJ48" s="19"/>
       <c r="BN48" s="19"/>
-      <c r="BO48" s="51" t="s">
+      <c r="BO48" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP48" s="64"/>
+    </row>
+    <row r="49" spans="1:68" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="BP48" s="45"/>
-    </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A49" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="45"/>
+      <c r="B49" s="64"/>
       <c r="D49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="N49" s="45"/>
+      <c r="F49" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M49" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="64"/>
+      <c r="O49" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="R49" s="19"/>
       <c r="S49" s="4"/>
       <c r="V49" s="19"/>
       <c r="AA49" s="19"/>
@@ -3691,236 +3689,238 @@
       <c r="AI49" s="19"/>
       <c r="AN49" s="19"/>
       <c r="AR49" s="19"/>
-      <c r="AT49" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU49" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV49" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW49" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX49" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY49" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ49" s="30" t="s">
-        <v>2</v>
-      </c>
+      <c r="AW49" s="19"/>
       <c r="BA49" s="19"/>
       <c r="BE49" s="19"/>
       <c r="BJ49" s="19"/>
       <c r="BN49" s="19"/>
-      <c r="BO49" s="51" t="s">
+      <c r="BO49" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP49" s="64"/>
+    </row>
+    <row r="50" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="BP49" s="45"/>
-    </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A50" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="45"/>
+      <c r="B50" s="64"/>
       <c r="D50" s="4"/>
       <c r="H50" s="4"/>
       <c r="L50" s="19"/>
-      <c r="M50" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="N50" s="45"/>
+      <c r="M50" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="N50" s="64"/>
       <c r="S50" s="4"/>
       <c r="V50" s="19"/>
       <c r="AA50" s="19"/>
       <c r="AE50" s="19"/>
-      <c r="AH50" s="28" t="s">
+      <c r="AI50" s="19"/>
+      <c r="AN50" s="19"/>
+      <c r="AR50" s="19"/>
+      <c r="AT50" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AI50" s="28" t="s">
+      <c r="AU50" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AJ50" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL50" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM50" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN50" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO50" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP50" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ50" s="30" t="s">
+      <c r="AV50" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW50" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX50" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY50" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ50" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="AR50" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW50" s="19"/>
       <c r="BA50" s="19"/>
       <c r="BE50" s="19"/>
       <c r="BJ50" s="19"/>
       <c r="BN50" s="19"/>
-      <c r="BO50" s="51" t="s">
+      <c r="BO50" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP50" s="64"/>
+    </row>
+    <row r="51" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="BP50" s="45"/>
-    </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="45"/>
+      <c r="B51" s="64"/>
       <c r="D51" s="4"/>
       <c r="H51" s="4"/>
       <c r="L51" s="19"/>
-      <c r="M51" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="45"/>
+      <c r="M51" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" s="64"/>
       <c r="S51" s="4"/>
       <c r="V51" s="19"/>
       <c r="AA51" s="19"/>
       <c r="AE51" s="19"/>
-      <c r="AI51" s="19"/>
-      <c r="AN51" s="19"/>
-      <c r="AQ51" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR51" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS51" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT51" s="28" t="s">
+      <c r="AH51" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AU51" s="28" t="s">
+      <c r="AI51" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AV51" s="28" t="s">
+      <c r="AJ51" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AW51" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX51" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY51" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ51" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA51" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB51" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC51" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD51" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE51" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF51" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG51" s="30" t="s">
+      <c r="AK51" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN51" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO51" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP51" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ51" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="BH51" s="30" t="s">
+      <c r="AR51" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="BI51" s="30" t="s">
-        <v>2</v>
-      </c>
+      <c r="AW51" s="19"/>
+      <c r="BA51" s="19"/>
+      <c r="BE51" s="19"/>
       <c r="BJ51" s="19"/>
       <c r="BN51" s="19"/>
-      <c r="BO51" s="51" t="s">
+      <c r="BO51" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP51" s="64"/>
+    </row>
+    <row r="52" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="BP51" s="45"/>
-    </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A52" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="45"/>
+      <c r="B52" s="64"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I52" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="J52" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>1</v>
-      </c>
+      <c r="H52" s="4"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="N52" s="45"/>
+      <c r="M52" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="N52" s="64"/>
       <c r="S52" s="4"/>
       <c r="V52" s="19"/>
       <c r="AA52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AI52" s="19"/>
       <c r="AN52" s="19"/>
-      <c r="AR52" s="19"/>
-      <c r="AW52" s="19"/>
+      <c r="AQ52" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR52" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS52" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT52" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV52" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX52" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY52" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ52" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA52" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB52" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC52" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD52" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE52" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF52" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG52" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH52" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI52" s="30" t="s">
+        <v>2</v>
+      </c>
       <c r="BJ52" s="19"/>
       <c r="BN52" s="19"/>
-      <c r="BO52" s="51" t="s">
+      <c r="BO52" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP52" s="64"/>
+    </row>
+    <row r="53" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="BP52" s="45"/>
-    </row>
-    <row r="53" spans="1:68" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="45"/>
+      <c r="B53" s="64"/>
       <c r="D53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="E53" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="L53" s="19"/>
-      <c r="M53" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="N53" s="45"/>
+      <c r="M53" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="64"/>
       <c r="S53" s="4"/>
       <c r="V53" s="19"/>
       <c r="AA53" s="19"/>
@@ -3929,61 +3929,25 @@
       <c r="AN53" s="19"/>
       <c r="AR53" s="19"/>
       <c r="AW53" s="19"/>
-      <c r="AX53" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY53" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ53" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA53" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB53" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC53" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD53" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE53" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF53" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG53" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH53" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI53" s="30" t="s">
-        <v>2</v>
-      </c>
       <c r="BJ53" s="19"/>
       <c r="BN53" s="19"/>
-      <c r="BO53" s="51" t="s">
+      <c r="BO53" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP53" s="64"/>
+    </row>
+    <row r="54" spans="1:68" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="BP53" s="45"/>
-    </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A54" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="45"/>
+      <c r="B54" s="64"/>
       <c r="D54" s="4"/>
       <c r="H54" s="4"/>
       <c r="L54" s="19"/>
-      <c r="M54" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" s="45"/>
+      <c r="M54" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="N54" s="64"/>
       <c r="S54" s="4"/>
       <c r="V54" s="19"/>
       <c r="AA54" s="19"/>
@@ -3992,6 +3956,9 @@
       <c r="AN54" s="19"/>
       <c r="AR54" s="19"/>
       <c r="AW54" s="19"/>
+      <c r="AX54" s="28" t="s">
+        <v>0</v>
+      </c>
       <c r="AY54" s="28" t="s">
         <v>0</v>
       </c>
@@ -4019,39 +3986,31 @@
       <c r="BG54" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BH54" s="29" t="s">
-        <v>1</v>
+      <c r="BH54" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="BI54" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="BJ54" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK54" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL54" s="30" t="s">
-        <v>2</v>
-      </c>
+      <c r="BJ54" s="19"/>
       <c r="BN54" s="19"/>
-      <c r="BO54" s="51" t="s">
+      <c r="BO54" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="BP54" s="64"/>
+    </row>
+    <row r="55" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="BP54" s="45"/>
-    </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A55" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="45"/>
+      <c r="B55" s="64"/>
       <c r="D55" s="4"/>
       <c r="H55" s="4"/>
       <c r="L55" s="19"/>
-      <c r="M55" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="N55" s="45"/>
+      <c r="M55" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="64"/>
       <c r="S55" s="4"/>
       <c r="V55" s="19"/>
       <c r="AA55" s="19"/>
@@ -4060,18 +4019,26 @@
       <c r="AN55" s="19"/>
       <c r="AR55" s="19"/>
       <c r="AW55" s="19"/>
-      <c r="BA55" s="19"/>
-      <c r="BB55" s="28" t="s">
+      <c r="AY55" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="BC55" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD55" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE55" s="28" t="s">
-        <v>0</v>
+      <c r="AZ55" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA55" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB55" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC55" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD55" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE55" s="29" t="s">
+        <v>1</v>
       </c>
       <c r="BF55" s="29" t="s">
         <v>1</v>
@@ -4082,41 +4049,36 @@
       <c r="BH55" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BI55" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ55" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK55" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL55" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM55" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN55" s="30" t="s">
+      <c r="BI55" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="BO55" s="51" t="s">
+      <c r="BJ55" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK55" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL55" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN55" s="19"/>
+      <c r="BO55" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="BP55" s="64"/>
+    </row>
+    <row r="56" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="BP55" s="45"/>
-    </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A56" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="45"/>
+      <c r="B56" s="64"/>
       <c r="D56" s="4"/>
       <c r="H56" s="4"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="N56" s="45"/>
+      <c r="M56" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" s="64"/>
       <c r="S56" s="4"/>
       <c r="V56" s="19"/>
       <c r="AA56" s="19"/>
@@ -4126,11 +4088,20 @@
       <c r="AR56" s="19"/>
       <c r="AW56" s="19"/>
       <c r="BA56" s="19"/>
-      <c r="BE56" s="97" t="s">
-        <v>48</v>
-      </c>
-      <c r="BF56" s="28" t="s">
+      <c r="BB56" s="28" t="s">
         <v>0</v>
+      </c>
+      <c r="BC56" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD56" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE56" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF56" s="29" t="s">
+        <v>1</v>
       </c>
       <c r="BG56" s="29" t="s">
         <v>1</v>
@@ -4156,23 +4127,23 @@
       <c r="BN56" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="BO56" s="51" t="s">
+      <c r="BO56" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP56" s="64"/>
+    </row>
+    <row r="57" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="BP56" s="45"/>
-    </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="45"/>
+      <c r="B57" s="64"/>
       <c r="D57" s="4"/>
       <c r="H57" s="4"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="N57" s="45"/>
+      <c r="M57" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="N57" s="64"/>
       <c r="S57" s="4"/>
       <c r="V57" s="19"/>
       <c r="AA57" s="19"/>
@@ -4182,35 +4153,53 @@
       <c r="AR57" s="19"/>
       <c r="AW57" s="19"/>
       <c r="BA57" s="19"/>
-      <c r="BE57" s="19"/>
-      <c r="BF57" s="78"/>
-      <c r="BJ57" s="19"/>
-      <c r="BN57" s="19"/>
-      <c r="BO57" s="51" t="s">
+      <c r="BE57" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF57" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG57" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH57" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI57" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ57" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK57" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL57" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM57" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN57" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO57" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP57" s="64"/>
+    </row>
+    <row r="58" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="BP57" s="45"/>
-    </row>
-    <row r="58" spans="1:68" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>1</v>
-      </c>
+      <c r="B58" s="64"/>
+      <c r="D58" s="4"/>
       <c r="H58" s="4"/>
       <c r="L58" s="19"/>
-      <c r="M58" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="N58" s="45"/>
+      <c r="M58" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="64"/>
       <c r="S58" s="4"/>
       <c r="V58" s="19"/>
       <c r="AA58" s="19"/>
@@ -4221,24 +4210,34 @@
       <c r="AW58" s="19"/>
       <c r="BA58" s="19"/>
       <c r="BE58" s="19"/>
+      <c r="BF58" s="47"/>
       <c r="BJ58" s="19"/>
       <c r="BN58" s="19"/>
-      <c r="BO58" s="51" t="s">
+      <c r="BO58" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP58" s="64"/>
+    </row>
+    <row r="59" spans="1:68" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="BP58" s="45"/>
-    </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A59" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="45"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="H59" s="4"/>
-      <c r="M59" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="N59" s="45"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="N59" s="64"/>
       <c r="S59" s="4"/>
       <c r="V59" s="19"/>
       <c r="AA59" s="19"/>
@@ -4251,22 +4250,25 @@
       <c r="BE59" s="19"/>
       <c r="BJ59" s="19"/>
       <c r="BN59" s="19"/>
-      <c r="BO59" s="51" t="s">
+      <c r="BO59" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="BP59" s="64"/>
+    </row>
+    <row r="60" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="BP59" s="45"/>
-    </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A60" s="51"/>
-      <c r="B60" s="45"/>
+      <c r="B60" s="64"/>
       <c r="D60" s="4"/>
       <c r="H60" s="4"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="45"/>
+      <c r="M60" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="N60" s="64"/>
       <c r="S60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="AB60" s="4"/>
+      <c r="V60" s="19"/>
+      <c r="AA60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AI60" s="19"/>
       <c r="AN60" s="19"/>
@@ -4276,576 +4278,709 @@
       <c r="BE60" s="19"/>
       <c r="BJ60" s="19"/>
       <c r="BN60" s="19"/>
-      <c r="BO60" s="44"/>
-      <c r="BP60" s="45"/>
+      <c r="BO60" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="BP60" s="64"/>
     </row>
     <row r="61" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="63"/>
+      <c r="B61" s="64"/>
+      <c r="D61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="64"/>
+      <c r="S61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AE61" s="19"/>
+      <c r="AI61" s="19"/>
+      <c r="AN61" s="19"/>
+      <c r="AR61" s="19"/>
+      <c r="AW61" s="19"/>
+      <c r="BA61" s="19"/>
+      <c r="BE61" s="19"/>
+      <c r="BJ61" s="19"/>
+      <c r="BN61" s="19"/>
+      <c r="BO61" s="65"/>
+      <c r="BP61" s="64"/>
+    </row>
+    <row r="62" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A62" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="89"/>
-      <c r="M61" s="76" t="s">
+      <c r="B62" s="67"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="N61" s="47"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="9"/>
-      <c r="AC61" s="13"/>
-      <c r="AD61" s="13"/>
-      <c r="AE61" s="13"/>
-      <c r="AF61" s="9"/>
-      <c r="AG61" s="13"/>
-      <c r="AH61" s="13"/>
-      <c r="AI61" s="13"/>
-      <c r="AJ61" s="9"/>
-      <c r="AK61" s="13"/>
-      <c r="AL61" s="13"/>
-      <c r="AM61" s="13"/>
-      <c r="AN61" s="13"/>
-      <c r="AO61" s="9"/>
-      <c r="AP61" s="13"/>
-      <c r="AQ61" s="13"/>
-      <c r="AR61" s="13"/>
-      <c r="AS61" s="9"/>
-      <c r="AT61" s="13"/>
-      <c r="AU61" s="13"/>
-      <c r="AV61" s="13"/>
-      <c r="AW61" s="13"/>
-      <c r="AX61" s="9"/>
-      <c r="AY61" s="13"/>
-      <c r="AZ61" s="13"/>
-      <c r="BA61" s="13"/>
-      <c r="BB61" s="9"/>
-      <c r="BC61" s="13"/>
-      <c r="BD61" s="13"/>
-      <c r="BE61" s="13"/>
-      <c r="BF61" s="9"/>
-      <c r="BG61" s="13"/>
-      <c r="BH61" s="13"/>
-      <c r="BI61" s="13"/>
-      <c r="BJ61" s="13"/>
-      <c r="BK61" s="9"/>
-      <c r="BL61" s="13"/>
-      <c r="BM61" s="13"/>
-      <c r="BN61" s="13"/>
-      <c r="BO61" s="46" t="s">
+      <c r="N62" s="67"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="13"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="13"/>
+      <c r="AI62" s="13"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="13"/>
+      <c r="AL62" s="13"/>
+      <c r="AM62" s="13"/>
+      <c r="AN62" s="13"/>
+      <c r="AO62" s="9"/>
+      <c r="AP62" s="13"/>
+      <c r="AQ62" s="13"/>
+      <c r="AR62" s="13"/>
+      <c r="AS62" s="9"/>
+      <c r="AT62" s="13"/>
+      <c r="AU62" s="13"/>
+      <c r="AV62" s="13"/>
+      <c r="AW62" s="13"/>
+      <c r="AX62" s="9"/>
+      <c r="AY62" s="13"/>
+      <c r="AZ62" s="13"/>
+      <c r="BA62" s="13"/>
+      <c r="BB62" s="9"/>
+      <c r="BC62" s="13"/>
+      <c r="BD62" s="13"/>
+      <c r="BE62" s="13"/>
+      <c r="BF62" s="9"/>
+      <c r="BG62" s="13"/>
+      <c r="BH62" s="13"/>
+      <c r="BI62" s="13"/>
+      <c r="BJ62" s="13"/>
+      <c r="BK62" s="9"/>
+      <c r="BL62" s="13"/>
+      <c r="BM62" s="13"/>
+      <c r="BN62" s="13"/>
+      <c r="BO62" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="BP61" s="47"/>
-    </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A62" s="51" t="s">
+      <c r="BP62" s="67"/>
+    </row>
+    <row r="63" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="D62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="M62" s="90" t="s">
+      <c r="B63" s="64"/>
+      <c r="D63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="M63" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="N62" s="42"/>
-      <c r="O62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="AB62" s="4"/>
-      <c r="AE62" s="19"/>
-      <c r="AI62" s="19"/>
-      <c r="AJ62" s="4"/>
-      <c r="AN62" s="19"/>
-      <c r="AR62" s="19"/>
-      <c r="AW62" s="19"/>
-      <c r="AX62" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY62" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ62" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA62" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE62" s="19"/>
-      <c r="BJ62" s="19"/>
-      <c r="BN62" s="19"/>
-      <c r="BO62" s="87" t="s">
+      <c r="N63" s="72"/>
+      <c r="O63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AE63" s="19"/>
+      <c r="AI63" s="19"/>
+      <c r="AJ63" s="4"/>
+      <c r="AN63" s="19"/>
+      <c r="AR63" s="19"/>
+      <c r="AW63" s="19"/>
+      <c r="AX63" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY63" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ63" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA63" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE63" s="19"/>
+      <c r="BJ63" s="19"/>
+      <c r="BN63" s="19"/>
+      <c r="BO63" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="BP62" s="45"/>
-    </row>
-    <row r="63" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="41" t="s">
+      <c r="BP63" s="72"/>
+    </row>
+    <row r="64" spans="1:68" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="91" t="s">
+      <c r="B64" s="86"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="N63" s="92"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="26"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="25"/>
-      <c r="V63" s="25"/>
-      <c r="W63" s="26"/>
-      <c r="X63" s="25"/>
-      <c r="Y63" s="25"/>
-      <c r="Z63" s="25"/>
-      <c r="AA63" s="25"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="25"/>
-      <c r="AD63" s="25"/>
-      <c r="AE63" s="25"/>
-      <c r="AF63" s="26"/>
-      <c r="AG63" s="25"/>
-      <c r="AH63" s="25"/>
-      <c r="AI63" s="25"/>
-      <c r="AJ63" s="26"/>
-      <c r="AK63" s="25"/>
-      <c r="AL63" s="25"/>
-      <c r="AM63" s="25"/>
-      <c r="AN63" s="25"/>
-      <c r="AO63" s="26"/>
-      <c r="AP63" s="25"/>
-      <c r="AQ63" s="25"/>
-      <c r="AR63" s="25"/>
-      <c r="AS63" s="26"/>
-      <c r="AT63" s="25"/>
-      <c r="AU63" s="25"/>
-      <c r="AV63" s="25"/>
-      <c r="AW63" s="25"/>
-      <c r="AX63" s="26"/>
-      <c r="AY63" s="28" t="s">
+      <c r="N64" s="98"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="26"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="25"/>
+      <c r="AB64" s="26"/>
+      <c r="AC64" s="25"/>
+      <c r="AD64" s="25"/>
+      <c r="AE64" s="25"/>
+      <c r="AF64" s="26"/>
+      <c r="AG64" s="25"/>
+      <c r="AH64" s="25"/>
+      <c r="AI64" s="25"/>
+      <c r="AJ64" s="26"/>
+      <c r="AK64" s="25"/>
+      <c r="AL64" s="25"/>
+      <c r="AM64" s="25"/>
+      <c r="AN64" s="25"/>
+      <c r="AO64" s="26"/>
+      <c r="AP64" s="25"/>
+      <c r="AQ64" s="25"/>
+      <c r="AR64" s="25"/>
+      <c r="AS64" s="26"/>
+      <c r="AT64" s="25"/>
+      <c r="AU64" s="25"/>
+      <c r="AV64" s="25"/>
+      <c r="AW64" s="25"/>
+      <c r="AX64" s="26"/>
+      <c r="AY64" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AZ63" s="28" t="s">
+      <c r="AZ64" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="BA63" s="28" t="s">
+      <c r="BA64" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="BB63" s="28" t="s">
+      <c r="BB64" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="BC63" s="28" t="s">
+      <c r="BC64" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="BD63" s="28" t="s">
+      <c r="BD64" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="BE63" s="28" t="s">
+      <c r="BE64" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="BF63" s="28" t="s">
+      <c r="BF64" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="BG63" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH63" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI63" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ63" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK63" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL63" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM63" s="30" t="s">
+      <c r="BG64" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH64" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI64" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ64" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK64" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL64" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM64" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="BN63" s="98"/>
-      <c r="BO63" s="99" t="s">
+      <c r="BN64" s="59"/>
+      <c r="BO64" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="BP63" s="66"/>
-    </row>
-    <row r="64" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="BO64" s="38"/>
-      <c r="BP64" s="38"/>
+      <c r="BP64" s="98"/>
     </row>
     <row r="65" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="BO65" s="38"/>
-      <c r="BP65" s="38"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="62"/>
+      <c r="BO65" s="62"/>
+      <c r="BP65" s="62"/>
     </row>
     <row r="66" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="BO66" s="38"/>
-      <c r="BP66" s="38"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="62"/>
+      <c r="M66" s="62"/>
+      <c r="N66" s="62"/>
+      <c r="BO66" s="62"/>
+      <c r="BP66" s="62"/>
     </row>
     <row r="67" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="BN67" s="3"/>
-      <c r="BO67" s="38"/>
-      <c r="BP67" s="38"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="62"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="62"/>
+      <c r="BO67" s="62"/>
+      <c r="BP67" s="62"/>
     </row>
     <row r="68" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="BO68" s="38"/>
-      <c r="BP68" s="38"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="62"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="62"/>
+      <c r="BN68" s="3"/>
+      <c r="BO68" s="62"/>
+      <c r="BP68" s="62"/>
     </row>
     <row r="69" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="BO69" s="38"/>
-      <c r="BP69" s="38"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="62"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="62"/>
+      <c r="BO69" s="62"/>
+      <c r="BP69" s="62"/>
     </row>
     <row r="70" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="BO70" s="38"/>
-      <c r="BP70" s="38"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="62"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="62"/>
+      <c r="BO70" s="62"/>
+      <c r="BP70" s="62"/>
     </row>
     <row r="71" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="BO71" s="38"/>
-      <c r="BP71" s="38"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="62"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="62"/>
+      <c r="BO71" s="62"/>
+      <c r="BP71" s="62"/>
     </row>
     <row r="72" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="BO72" s="38"/>
-      <c r="BP72" s="38"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="62"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="62"/>
+      <c r="BO72" s="62"/>
+      <c r="BP72" s="62"/>
     </row>
     <row r="73" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="BO73" s="38"/>
-      <c r="BP73" s="38"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="62"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="62"/>
+      <c r="BO73" s="62"/>
+      <c r="BP73" s="62"/>
     </row>
     <row r="74" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="BO74" s="38"/>
-      <c r="BP74" s="38"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="62"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="62"/>
+      <c r="BO74" s="62"/>
+      <c r="BP74" s="62"/>
     </row>
     <row r="75" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="BO75" s="38"/>
-      <c r="BP75" s="38"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="62"/>
+      <c r="BO75" s="62"/>
+      <c r="BP75" s="62"/>
     </row>
     <row r="76" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="BO76" s="38"/>
-      <c r="BP76" s="38"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="62"/>
+      <c r="M76" s="62"/>
+      <c r="N76" s="62"/>
+      <c r="BO76" s="62"/>
+      <c r="BP76" s="62"/>
     </row>
     <row r="77" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="BO77" s="38"/>
-      <c r="BP77" s="38"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="62"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="62"/>
+      <c r="BO77" s="62"/>
+      <c r="BP77" s="62"/>
     </row>
     <row r="78" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="BO78" s="38"/>
-      <c r="BP78" s="38"/>
+      <c r="A78" s="62"/>
+      <c r="B78" s="62"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="62"/>
+      <c r="BO78" s="62"/>
+      <c r="BP78" s="62"/>
     </row>
     <row r="79" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-      <c r="BO79" s="38"/>
-      <c r="BP79" s="38"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="62"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+      <c r="BO79" s="62"/>
+      <c r="BP79" s="62"/>
     </row>
     <row r="80" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
-      <c r="BO80" s="38"/>
-      <c r="BP80" s="38"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="62"/>
+      <c r="M80" s="62"/>
+      <c r="N80" s="62"/>
+      <c r="BO80" s="62"/>
+      <c r="BP80" s="62"/>
     </row>
     <row r="81" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="BO81" s="38"/>
-      <c r="BP81" s="38"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="62"/>
+      <c r="M81" s="62"/>
+      <c r="N81" s="62"/>
+      <c r="BO81" s="62"/>
+      <c r="BP81" s="62"/>
     </row>
     <row r="82" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38"/>
-      <c r="BO82" s="38"/>
-      <c r="BP82" s="38"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
+      <c r="BO82" s="62"/>
+      <c r="BP82" s="62"/>
     </row>
     <row r="83" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="38"/>
-      <c r="BO83" s="38"/>
-      <c r="BP83" s="38"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
+      <c r="BO83" s="62"/>
+      <c r="BP83" s="62"/>
     </row>
     <row r="84" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="BO84" s="38"/>
-      <c r="BP84" s="38"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="62"/>
+      <c r="M84" s="62"/>
+      <c r="N84" s="62"/>
+      <c r="BO84" s="62"/>
+      <c r="BP84" s="62"/>
     </row>
     <row r="85" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="BO85" s="38"/>
-      <c r="BP85" s="38"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="62"/>
+      <c r="M85" s="62"/>
+      <c r="N85" s="62"/>
+      <c r="BO85" s="62"/>
+      <c r="BP85" s="62"/>
     </row>
     <row r="86" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="BO86" s="38"/>
-      <c r="BP86" s="38"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="62"/>
+      <c r="M86" s="62"/>
+      <c r="N86" s="62"/>
+      <c r="BO86" s="62"/>
+      <c r="BP86" s="62"/>
     </row>
     <row r="87" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
-      <c r="BO87" s="38"/>
-      <c r="BP87" s="38"/>
+      <c r="A87" s="62"/>
+      <c r="B87" s="62"/>
+      <c r="M87" s="62"/>
+      <c r="N87" s="62"/>
+      <c r="BO87" s="62"/>
+      <c r="BP87" s="62"/>
     </row>
     <row r="88" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="BO88" s="38"/>
-      <c r="BP88" s="38"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="62"/>
+      <c r="M88" s="62"/>
+      <c r="N88" s="62"/>
+      <c r="BO88" s="62"/>
+      <c r="BP88" s="62"/>
     </row>
     <row r="89" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="BO89" s="38"/>
-      <c r="BP89" s="38"/>
+      <c r="A89" s="62"/>
+      <c r="B89" s="62"/>
+      <c r="M89" s="62"/>
+      <c r="N89" s="62"/>
+      <c r="BO89" s="62"/>
+      <c r="BP89" s="62"/>
     </row>
     <row r="90" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
-      <c r="BO90" s="38"/>
-      <c r="BP90" s="38"/>
+      <c r="A90" s="62"/>
+      <c r="B90" s="62"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="62"/>
+      <c r="BO90" s="62"/>
+      <c r="BP90" s="62"/>
     </row>
     <row r="91" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A91" s="38"/>
-      <c r="B91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
-      <c r="BO91" s="38"/>
-      <c r="BP91" s="38"/>
+      <c r="A91" s="62"/>
+      <c r="B91" s="62"/>
+      <c r="M91" s="62"/>
+      <c r="N91" s="62"/>
+      <c r="BO91" s="62"/>
+      <c r="BP91" s="62"/>
     </row>
     <row r="92" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="38"/>
-      <c r="BO92" s="38"/>
-      <c r="BP92" s="38"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="62"/>
+      <c r="M92" s="62"/>
+      <c r="N92" s="62"/>
+      <c r="BO92" s="62"/>
+      <c r="BP92" s="62"/>
     </row>
     <row r="93" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A93" s="38"/>
-      <c r="B93" s="38"/>
-      <c r="M93" s="38"/>
-      <c r="N93" s="38"/>
-      <c r="BO93" s="38"/>
-      <c r="BP93" s="38"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="62"/>
+      <c r="M93" s="62"/>
+      <c r="N93" s="62"/>
+      <c r="BO93" s="62"/>
+      <c r="BP93" s="62"/>
     </row>
     <row r="94" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="BO94" s="38"/>
-      <c r="BP94" s="38"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="62"/>
+      <c r="M94" s="62"/>
+      <c r="N94" s="62"/>
+      <c r="BO94" s="62"/>
+      <c r="BP94" s="62"/>
     </row>
     <row r="95" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A95" s="38"/>
-      <c r="B95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-      <c r="BO95" s="38"/>
-      <c r="BP95" s="38"/>
+      <c r="A95" s="62"/>
+      <c r="B95" s="62"/>
+      <c r="M95" s="62"/>
+      <c r="N95" s="62"/>
+      <c r="BO95" s="62"/>
+      <c r="BP95" s="62"/>
     </row>
     <row r="96" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
-      <c r="M96" s="38"/>
-      <c r="N96" s="38"/>
-      <c r="BO96" s="38"/>
-      <c r="BP96" s="38"/>
+      <c r="A96" s="62"/>
+      <c r="B96" s="62"/>
+      <c r="M96" s="62"/>
+      <c r="N96" s="62"/>
+      <c r="BO96" s="62"/>
+      <c r="BP96" s="62"/>
+    </row>
+    <row r="97" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A97" s="62"/>
+      <c r="B97" s="62"/>
+      <c r="M97" s="62"/>
+      <c r="N97" s="62"/>
+      <c r="BO97" s="62"/>
+      <c r="BP97" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="278">
-    <mergeCell ref="BO95:BP95"/>
-    <mergeCell ref="BO96:BP96"/>
-    <mergeCell ref="BO86:BP86"/>
-    <mergeCell ref="BO87:BP87"/>
-    <mergeCell ref="BO88:BP88"/>
-    <mergeCell ref="BO89:BP89"/>
-    <mergeCell ref="BO90:BP90"/>
-    <mergeCell ref="BO91:BP91"/>
-    <mergeCell ref="BO92:BP92"/>
-    <mergeCell ref="BO93:BP93"/>
-    <mergeCell ref="BO94:BP94"/>
-    <mergeCell ref="BO77:BP77"/>
-    <mergeCell ref="BO78:BP78"/>
-    <mergeCell ref="BO79:BP79"/>
-    <mergeCell ref="BO80:BP80"/>
-    <mergeCell ref="BO81:BP81"/>
-    <mergeCell ref="BO82:BP82"/>
-    <mergeCell ref="BO83:BP83"/>
-    <mergeCell ref="BO84:BP84"/>
-    <mergeCell ref="BO85:BP85"/>
-    <mergeCell ref="BO68:BP68"/>
-    <mergeCell ref="BO69:BP69"/>
-    <mergeCell ref="BO70:BP70"/>
-    <mergeCell ref="BO71:BP71"/>
-    <mergeCell ref="BO72:BP72"/>
-    <mergeCell ref="BO73:BP73"/>
-    <mergeCell ref="BO74:BP74"/>
-    <mergeCell ref="BO75:BP75"/>
-    <mergeCell ref="BO76:BP76"/>
-    <mergeCell ref="BO59:BP59"/>
-    <mergeCell ref="BO60:BP60"/>
-    <mergeCell ref="BO61:BP61"/>
-    <mergeCell ref="BO62:BP62"/>
-    <mergeCell ref="BO63:BP63"/>
-    <mergeCell ref="BO64:BP64"/>
-    <mergeCell ref="BO65:BP65"/>
-    <mergeCell ref="BO66:BP66"/>
-    <mergeCell ref="BO67:BP67"/>
-    <mergeCell ref="BO50:BP50"/>
-    <mergeCell ref="BO51:BP51"/>
-    <mergeCell ref="BO52:BP52"/>
-    <mergeCell ref="BO53:BP53"/>
-    <mergeCell ref="BO54:BP54"/>
-    <mergeCell ref="BO55:BP55"/>
-    <mergeCell ref="BO56:BP56"/>
-    <mergeCell ref="BO57:BP57"/>
-    <mergeCell ref="BO58:BP58"/>
-    <mergeCell ref="BO41:BP41"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="BO43:BP43"/>
-    <mergeCell ref="BO44:BP44"/>
-    <mergeCell ref="BO45:BP45"/>
-    <mergeCell ref="BO46:BP46"/>
-    <mergeCell ref="BO47:BP47"/>
-    <mergeCell ref="BO48:BP48"/>
-    <mergeCell ref="BO49:BP49"/>
-    <mergeCell ref="BO31:BP31"/>
-    <mergeCell ref="BO32:BP32"/>
-    <mergeCell ref="BO33:BP33"/>
-    <mergeCell ref="BO34:BP34"/>
-    <mergeCell ref="BO35:BP35"/>
-    <mergeCell ref="BO37:BP37"/>
-    <mergeCell ref="BO38:BP38"/>
-    <mergeCell ref="BO39:BP39"/>
-    <mergeCell ref="BO40:BP40"/>
-    <mergeCell ref="BO22:BP22"/>
-    <mergeCell ref="BO23:BP23"/>
-    <mergeCell ref="BO24:BP24"/>
-    <mergeCell ref="BO25:BP25"/>
-    <mergeCell ref="BO26:BP26"/>
-    <mergeCell ref="BO27:BP27"/>
-    <mergeCell ref="BO28:BP28"/>
-    <mergeCell ref="BO29:BP29"/>
-    <mergeCell ref="BO30:BP30"/>
+  <mergeCells count="281">
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
     <mergeCell ref="M94:N94"/>
     <mergeCell ref="M95:N95"/>
     <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
     <mergeCell ref="BO1:BP1"/>
     <mergeCell ref="BO2:BP2"/>
     <mergeCell ref="BO3:BP3"/>
@@ -4867,186 +5002,81 @@
     <mergeCell ref="BO19:BP19"/>
     <mergeCell ref="BO20:BP20"/>
     <mergeCell ref="BO21:BP21"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="BO22:BP22"/>
+    <mergeCell ref="BO23:BP23"/>
+    <mergeCell ref="BO24:BP24"/>
+    <mergeCell ref="BO25:BP25"/>
+    <mergeCell ref="BO26:BP26"/>
+    <mergeCell ref="BO27:BP27"/>
+    <mergeCell ref="BO28:BP28"/>
+    <mergeCell ref="BO29:BP29"/>
+    <mergeCell ref="BO30:BP30"/>
+    <mergeCell ref="BO31:BP31"/>
+    <mergeCell ref="BO32:BP32"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="BO35:BP35"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BO38:BP38"/>
+    <mergeCell ref="BO39:BP39"/>
+    <mergeCell ref="BO40:BP40"/>
+    <mergeCell ref="BO41:BP41"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="BO43:BP43"/>
+    <mergeCell ref="BO44:BP44"/>
+    <mergeCell ref="BO45:BP45"/>
+    <mergeCell ref="BO46:BP46"/>
+    <mergeCell ref="BO47:BP47"/>
+    <mergeCell ref="BO48:BP48"/>
+    <mergeCell ref="BO49:BP49"/>
+    <mergeCell ref="BO50:BP50"/>
+    <mergeCell ref="BO51:BP51"/>
+    <mergeCell ref="BO52:BP52"/>
+    <mergeCell ref="BO53:BP53"/>
+    <mergeCell ref="BO54:BP54"/>
+    <mergeCell ref="BO55:BP55"/>
+    <mergeCell ref="BO56:BP56"/>
+    <mergeCell ref="BO57:BP57"/>
+    <mergeCell ref="BO58:BP58"/>
+    <mergeCell ref="BO59:BP59"/>
+    <mergeCell ref="BO60:BP60"/>
+    <mergeCell ref="BO61:BP61"/>
+    <mergeCell ref="BO62:BP62"/>
+    <mergeCell ref="BO63:BP63"/>
+    <mergeCell ref="BO64:BP64"/>
+    <mergeCell ref="BO65:BP65"/>
+    <mergeCell ref="BO66:BP66"/>
+    <mergeCell ref="BO67:BP67"/>
+    <mergeCell ref="BO68:BP68"/>
+    <mergeCell ref="BO69:BP69"/>
+    <mergeCell ref="BO70:BP70"/>
+    <mergeCell ref="BO71:BP71"/>
+    <mergeCell ref="BO72:BP72"/>
+    <mergeCell ref="BO73:BP73"/>
+    <mergeCell ref="BO74:BP74"/>
+    <mergeCell ref="BO75:BP75"/>
+    <mergeCell ref="BO76:BP76"/>
+    <mergeCell ref="BO77:BP77"/>
+    <mergeCell ref="BO78:BP78"/>
+    <mergeCell ref="BO79:BP79"/>
+    <mergeCell ref="BO80:BP80"/>
+    <mergeCell ref="BO81:BP81"/>
+    <mergeCell ref="BO82:BP82"/>
+    <mergeCell ref="BO83:BP83"/>
+    <mergeCell ref="BO84:BP84"/>
+    <mergeCell ref="BO85:BP85"/>
+    <mergeCell ref="BO86:BP86"/>
+    <mergeCell ref="BO96:BP96"/>
+    <mergeCell ref="BO97:BP97"/>
+    <mergeCell ref="BO87:BP87"/>
+    <mergeCell ref="BO88:BP88"/>
+    <mergeCell ref="BO89:BP89"/>
+    <mergeCell ref="BO90:BP90"/>
+    <mergeCell ref="BO91:BP91"/>
+    <mergeCell ref="BO92:BP92"/>
+    <mergeCell ref="BO93:BP93"/>
+    <mergeCell ref="BO94:BP94"/>
+    <mergeCell ref="BO95:BP95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
